--- a/documentation/Historias de usuario y seguimiento del proyecto-Daniel de Luna Rodríguez.xlsx
+++ b/documentation/Historias de usuario y seguimiento del proyecto-Daniel de Luna Rodríguez.xlsx
@@ -71,160 +71,160 @@
     <t>El usuario queda registrado en la base de datos con los datos insertados.</t>
   </si>
   <si>
+    <t>Terminada</t>
+  </si>
+  <si>
+    <t>HU-02</t>
+  </si>
+  <si>
+    <t>Como usuario anónimo se debe escribir mis credenciales y poder iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Al usuario se le otroga un token con el que puede realizar las acciones de un usuario logueado.</t>
+  </si>
+  <si>
+    <t>HU-03</t>
+  </si>
+  <si>
+    <t>Como usuario cliente de la aplicación, quiero poder entrar en el menu de inicio y ver las peliculas en carteleras.</t>
+  </si>
+  <si>
+    <t>El usuario logueado puede ver correctamente el menu de inicio correctamente.</t>
+  </si>
+  <si>
+    <t>HU-04</t>
+  </si>
+  <si>
+    <t>Como usuario cliente se le debe mostrar una sección de publicidad en la pantalla de home.</t>
+  </si>
+  <si>
+    <t>La publicidad se muestra correctamente en la pantalla principal.</t>
+  </si>
+  <si>
+    <t>HU-05</t>
+  </si>
+  <si>
+    <t>Como usuario cliente quiero pulsar en una pelicula para acceder a los detalles de esta.</t>
+  </si>
+  <si>
+    <t>La página de detallas de una película se muestra correctamente.</t>
+  </si>
+  <si>
+    <t>HU-06</t>
+  </si>
+  <si>
+    <t>Como usuario de la aplicacion quiero pulsar en comprar ticket para entrar en la pantalla de selección de asiento.</t>
+  </si>
+  <si>
+    <t>Se abre la pantalla de selección de asiento con todas sus funcionalidades correspondientes.</t>
+  </si>
+  <si>
+    <t>HU-07</t>
+  </si>
+  <si>
+    <t>Como usuario de la aplicación quiero pulsar en un asiento para seleccionarlo, junto a las horas disponibles.</t>
+  </si>
+  <si>
+    <t>Funciones de elegir sitio y hora funcionan según lo previsto.</t>
+  </si>
+  <si>
+    <t>HU-08</t>
+  </si>
+  <si>
+    <t>Como usuario de la aplicacion se debe poder acceder a los tickets comprados.</t>
+  </si>
+  <si>
+    <t>Se muestra la pantalla de tickets con los tickets pertenecientes al usuario logueado.</t>
+  </si>
+  <si>
+    <t>HU-09</t>
+  </si>
+  <si>
+    <t>Como usuario de la aplicación se debe poder acceder a una pantalla de perfil desde la cual se pueda cambiar los datos.</t>
+  </si>
+  <si>
+    <t>La pantalla de usuario se muestra correctamente con la opción de editar los datos.</t>
+  </si>
+  <si>
+    <t>HU-10</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder registrar los datos una película a la cartelera para mostrarla como disponible en la aplicación cliente.</t>
+  </si>
+  <si>
+    <t>El administrador edita correctamente los datos de una pelicula.</t>
+  </si>
+  <si>
+    <t>HU-11</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder registrar los datos de una sesión en un formulario para añadirla.</t>
+  </si>
+  <si>
+    <t>El aministrador edita correctamente los datos de una sesión.</t>
+  </si>
+  <si>
+    <t>HU-12</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder registrar los datos de un usuario para poder registar a este usuario con rol de administrador.</t>
+  </si>
+  <si>
+    <t>El administrador registra correctamente a otro administrador.</t>
+  </si>
+  <si>
+    <t>HU-13</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder editar los datos de una película para que sean mostrados correctamente en la aplicación cliente.</t>
+  </si>
+  <si>
+    <t>El administrador puede editar los datos de una pelicula.</t>
+  </si>
+  <si>
+    <t>HU-14</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder cambiar los datos de una sesión para que estos sean mostrados correctamente en la aplicación cliente.</t>
+  </si>
+  <si>
+    <t>El administrador puede editar los datos de una sesión y esta se muestra correctamente en la aplicación cliente.</t>
+  </si>
+  <si>
+    <t>HU-15</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder eliminar una película para que esta no sea mostrada en la aplicación cliente.</t>
+  </si>
+  <si>
+    <t>El usuario administrador puede eliminar la película correctamente.</t>
+  </si>
+  <si>
+    <t>HU-16</t>
+  </si>
+  <si>
+    <t>Como usuario administrador se debe poder eliminar una sesión para que esta no sea mostrada en la aplicación cliente.</t>
+  </si>
+  <si>
+    <t>El usuario administrador puede elimnar la sesion correctamente.</t>
+  </si>
+  <si>
+    <t>BACKLOG ITEM TYPES</t>
+  </si>
+  <si>
+    <t>BACKLOG ITEM STATUS</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>No iniciada</t>
   </si>
   <si>
-    <t>HU-02</t>
-  </si>
-  <si>
-    <t>Como usuario anónimo se debe escribir mis credenciales y poder iniciar sesión.</t>
-  </si>
-  <si>
-    <t>Al usuario se le otroga un token con el que puede realizar las acciones de un usuario logueado.</t>
-  </si>
-  <si>
-    <t>HU-03</t>
-  </si>
-  <si>
-    <t>Como usuario cliente de la aplicación, quiero poder entrar en el menu de inicio y ver las peliculas en carteleras.</t>
-  </si>
-  <si>
-    <t>El usuario logueado puede ver correctamente el menu de inicio correctamente.</t>
-  </si>
-  <si>
-    <t>HU-04</t>
-  </si>
-  <si>
-    <t>Como usuario cliente se le debe mostrar una sección de publicidad en la pantalla de home.</t>
-  </si>
-  <si>
-    <t>La publicidad se muestra correctamente en la pantalla principal.</t>
-  </si>
-  <si>
-    <t>HU-05</t>
-  </si>
-  <si>
-    <t>Como usuario cliente quiero pulsar en una pelicula para acceder a los detalles de esta.</t>
-  </si>
-  <si>
-    <t>La página de detallas de una película se muestra correctamente.</t>
-  </si>
-  <si>
-    <t>HU-06</t>
-  </si>
-  <si>
-    <t>Como usuario de la aplicacion quiero pulsar en comprar ticket para entrar en la pantalla de selección de asiento.</t>
-  </si>
-  <si>
-    <t>Se abre la pantalla de selección de asiento con todas sus funcionalidades correspondientes.</t>
-  </si>
-  <si>
-    <t>HU-07</t>
-  </si>
-  <si>
-    <t>Como usuario de la aplicación quiero pulsar en un asiento para seleccionarlo, junto a las horas disponibles.</t>
-  </si>
-  <si>
-    <t>Funciones de elegir sitio y hora funcionan según lo previsto.</t>
-  </si>
-  <si>
-    <t>HU-08</t>
-  </si>
-  <si>
-    <t>Como usuario de la aplicacion se debe poder acceder a los tickets comprados.</t>
-  </si>
-  <si>
-    <t>Se muestra la pantalla de tickets con los tickets pertenecientes al usuario logueado.</t>
-  </si>
-  <si>
-    <t>HU-09</t>
-  </si>
-  <si>
-    <t>Como usuario de la aplicación se debe poder acceder a una pantalla de perfil desde la cual se pueda cambiar los datos.</t>
-  </si>
-  <si>
-    <t>La pantalla de usuario se muestra correctamente con la opción de editar los datos.</t>
-  </si>
-  <si>
-    <t>HU-10</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder registrar los datos una película a la cartelera para mostrarla como disponible en la aplicación cliente.</t>
-  </si>
-  <si>
-    <t>El administrador edita correctamente los datos de una pelicula.</t>
-  </si>
-  <si>
-    <t>HU-11</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder registrar los datos de una sesión en un formulario para añadirla.</t>
-  </si>
-  <si>
-    <t>El aministrador edita correctamente los datos de una sesión.</t>
-  </si>
-  <si>
-    <t>HU-12</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder registrar los datos de un usuario para poder registar a este usuario con rol de administrador.</t>
-  </si>
-  <si>
-    <t>El administrador registra correctamente a otro administrador.</t>
-  </si>
-  <si>
-    <t>HU-13</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder editar los datos de una película para que sean mostrados correctamente en la aplicación cliente.</t>
-  </si>
-  <si>
-    <t>El administrador puede editar los datos de una pelicula.</t>
-  </si>
-  <si>
-    <t>HU-14</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder cambiar los datos de una sesión para que estos sean mostrados correctamente en la aplicación cliente.</t>
-  </si>
-  <si>
-    <t>El administrador puede editar los datos de una sesión y esta se muestra correctamente en la aplicación cliente.</t>
-  </si>
-  <si>
-    <t>HU-15</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder eliminar una película para que esta no sea mostrada en la aplicación cliente.</t>
-  </si>
-  <si>
-    <t>El usuario administrador puede eliminar la película correctamente.</t>
-  </si>
-  <si>
-    <t>HU-16</t>
-  </si>
-  <si>
-    <t>Como usuario administrador se debe poder eliminar una sesión para que esta no sea mostrada en la aplicación cliente.</t>
-  </si>
-  <si>
-    <t>El usuario administrador puede elimnar la sesion correctamente.</t>
-  </si>
-  <si>
-    <t>BACKLOG ITEM TYPES</t>
-  </si>
-  <si>
-    <t>BACKLOG ITEM STATUS</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>En progreso</t>
   </si>
   <si>
     <t>En pruebas</t>
-  </si>
-  <si>
-    <t>Terminada</t>
   </si>
 </sst>
 </file>
@@ -633,6 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2405,6 +2406,9 @@
       <formula1>Datamaster!$B$2:$B$5</formula1>
     </dataValidation>
   </dataValidations>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2436,7 +2440,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2444,17 +2448,17 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
